--- a/spark/experiments/results-sql-g2.2.csv/g2.2-3t-n3-c2.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-3t-n3-c2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/results-sql-g2.2.csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.2.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4ED5882-4805-48D4-A5F8-A12A58F68072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-a21cd559-3f8c-44d8-b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -182,12 +181,15 @@
   </si>
   <si>
     <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>too high deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -699,24 +701,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,9 +734,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -746,6 +748,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -936,7 +939,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FB6-4794-9338-0F2C34397E11}"/>
             </c:ext>
@@ -950,11 +953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1321014559"/>
-        <c:axId val="1318766911"/>
+        <c:axId val="-1008772480"/>
+        <c:axId val="-1008762688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1321014559"/>
+        <c:axId val="-1008772480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,12 +1013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318766911"/>
+        <c:crossAx val="-1008762688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1318766911"/>
+        <c:axId val="-1008762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1321014559"/>
+        <c:crossAx val="-1008772480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1086,14 +1089,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1704,7 +1707,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AFAB1A-818F-401B-ACCC-FCD9992A0402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91AFAB1A-818F-401B-ACCC-FCD9992A0402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,18 +2027,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>623977572.35000002</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>415967497.42000008</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>79834702.650000006</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>45131761.885000005</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>14076245500</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>234604.09166666667</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>7.5306925359998331</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5251,8 +5254,11 @@
       <c r="D50">
         <v>1.5544167172999996</v>
       </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5262,6 +5268,9 @@
       </c>
       <c r="D51">
         <v>99.357644473649998</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
